--- a/_Prototype/Document/Character/캐릭터.xlsx
+++ b/_Prototype/Document/Character/캐릭터.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\_Prototype\Document\Excel 문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\_Prototype\Document\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029997EC-EEC4-4101-A7D2-8D6A4AE0E817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBAA9C8-A68F-4290-BC5B-E9E4F709D3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
+    <workbookView xWindow="30930" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터 설명 &amp; 스킬 설명" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
   <si>
     <t>캐릭터 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,12 +138,6 @@
   </si>
   <si>
     <t>래퍼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(PASSIVE)
-사육하던 원숭이를 펫으로 데리고 다닙니다.
-원숭이의 인벤토리도 사용할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -215,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>명중!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>디스랩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,27 +258,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기타를 쳐서 범위 안에 들어와있던 캐릭터들에게 다음의 효과를 줍니다.
-같은 팀 : 60초간의 진행하는 미션의 쿨타임을 50% 줄여줍니다.
-상대 팀 : 60초간 이동속도가 10% 줄어들고 쿨타임이 30% 증가합니다.
-쿨타임 : (효과가 모두 발동된 후) 60초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>둔화 화살을 쏴서 맞추면 맞은 적의 이동속도가 1분간 70% 감소합니다.
-쿨타임 : (화살을 맞췄을 때) 50초
-(맞추지 못했을 때) : 30초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬을 당하면 5초간 머리가 아파 기절합니다.
 쿨타임 : 30초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디스랩을 하며
-적팀의 미션 수행을 한번 끊을 수 있습니다.
-쿨타임 : 50초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -312,11 +283,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표 발견</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구역이 20초간 아무에게도 점령되지 않았다면 맵에 표시가 됩니다.
+본인팀 로비에서 맵을 확인하면 팀 로그에 점령되지 않은 곳을 알려줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>덫을 사용하여 상대팀의 이동을 방해합니다.
-덫 사용 쿨타임 : 20초
+덫 사용 쿨타임 : 80초
 덫을 10회 사용하면 상대편 배에 불을 지를 수 있습니다. 
 (불을 지르면 배에 있는 재료들이 20초당 하나씩 사라집니다.)
 방화 쿨타임 : (불을 지른 순간부터) 100초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(PASSIVE)
+사육하던 원숭이를 펫으로 데리고 다닙니다.
+원숭이의 인벤토리도 사용할 수 있습니다.
+원숭이도 0.5인원수로 포함시킬 수 있습니다.
+쿨타임 : 5일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -371,12 +363,22 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : 45초</t>
+      <t xml:space="preserve"> : 60초</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이콘</t>
+    <t>기타를 쳐서 범위 안에 들어와있던 캐릭터들에게 다음의 효과를 줍니다.
+같은 팀 점령 지점 : 미션 쿨 타임 30% 감소
+상대 팀 점령 지점 : 미션 쿨 타임 50% 증가
+효과 지속 시간 : 1일
+쿨타임 : (효과가 모두 발동된 후) 4일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스랩을 하며
+적팀의 미션 수행을 한번 끊을 수 있습니다.
+쿨타임 : 60초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +526,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11449050" y="1038225"/>
+          <a:off x="11438404" y="1048871"/>
           <a:ext cx="1314450" cy="1106905"/>
           <a:chOff x="905435" y="1438835"/>
           <a:chExt cx="2895600" cy="2438400"/>
@@ -933,102 +935,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1771650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1491414</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 6" descr="확장 가능한 그래픽 컴퓨터 아이콘 일러스트, 양궁 아이콘, cdr, 각도 png | PNGEgg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A884661-174D-2601-BA06-2BF9326980CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId5">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="3922" b="94118" l="3239" r="95547">
-                      <a14:foregroundMark x1="9312" y1="60294" x2="10121" y2="72059"/>
-                      <a14:foregroundMark x1="15789" y1="66176" x2="3239" y2="67157"/>
-                      <a14:foregroundMark x1="23077" y1="94118" x2="33603" y2="94118"/>
-                      <a14:foregroundMark x1="69950" y1="79609" x2="73279" y2="79412"/>
-                      <a14:foregroundMark x1="64156" y1="79951" x2="64373" y2="79938"/>
-                      <a14:foregroundMark x1="61611" y1="80101" x2="62205" y2="80066"/>
-                      <a14:foregroundMark x1="60232" y1="80182" x2="60728" y2="80153"/>
-                      <a14:foregroundMark x1="56680" y1="80392" x2="59256" y2="80240"/>
-                      <a14:foregroundMark x1="87045" y1="48529" x2="87045" y2="48529"/>
-                      <a14:foregroundMark x1="95547" y1="47549" x2="95547" y2="47549"/>
-                      <a14:foregroundMark x1="61943" y1="3922" x2="61943" y2="3922"/>
-                      <a14:foregroundMark x1="75304" y1="77451" x2="75304" y2="77451"/>
-                      <a14:foregroundMark x1="30364" y1="48039" x2="30364" y2="48039"/>
-                      <a14:backgroundMark x1="64372" y1="81863" x2="64372" y2="81863"/>
-                      <a14:backgroundMark x1="64777" y1="79412" x2="64777" y2="79412"/>
-                      <a14:backgroundMark x1="66802" y1="80392" x2="66802" y2="80392"/>
-                      <a14:backgroundMark x1="68421" y1="80392" x2="68421" y2="80392"/>
-                      <a14:backgroundMark x1="68826" y1="79902" x2="68826" y2="79902"/>
-                      <a14:backgroundMark x1="66397" y1="79412" x2="66397" y2="79412"/>
-                      <a14:backgroundMark x1="64777" y1="81373" x2="62348" y2="80392"/>
-                      <a14:backgroundMark x1="65182" y1="81373" x2="65587" y2="79902"/>
-                      <a14:backgroundMark x1="62348" y1="82353" x2="60324" y2="78922"/>
-                      <a14:backgroundMark x1="60324" y1="80392" x2="59109" y2="79902"/>
-                      <a14:backgroundMark x1="68016" y1="80882" x2="67206" y2="77451"/>
-                      <a14:backgroundMark x1="63563" y1="81863" x2="70445" y2="78431"/>
-                    </a14:backgroundRemoval>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11096625" y="4400550"/>
-          <a:ext cx="1609725" cy="1329489"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1053,11 +959,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId7">
+                <a14:imgLayer r:embed="rId5">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
                   </a14:imgEffect>
@@ -1123,7 +1029,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1184,7 +1090,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1245,7 +1151,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1306,7 +1212,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1366,8 +1272,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11306174" y="14820899"/>
-          <a:ext cx="1619251" cy="1685925"/>
+          <a:off x="11295528" y="14823700"/>
+          <a:ext cx="1619251" cy="1684805"/>
           <a:chOff x="6658348" y="4490646"/>
           <a:chExt cx="1027954" cy="993295"/>
         </a:xfrm>
@@ -1386,11 +1292,11 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId13">
+                  <a14:imgLayer r:embed="rId11">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="9483" b="89943" l="5747" r="94540">
                         <a14:foregroundMark x1="21839" y1="51437" x2="21839" y2="51437"/>
@@ -1488,13 +1394,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -1542,7 +1448,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1603,7 +1509,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1663,8 +1569,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10963275" y="20650200"/>
-          <a:ext cx="2396525" cy="773629"/>
+          <a:off x="10957672" y="20648519"/>
+          <a:ext cx="2387000" cy="773629"/>
           <a:chOff x="8681085" y="4281596"/>
           <a:chExt cx="2396525" cy="773629"/>
         </a:xfrm>
@@ -1683,11 +1589,11 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId19">
+                  <a14:imgLayer r:embed="rId17">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="2344" b="98633" l="10000" r="90000">
                         <a14:foregroundMark x1="30652" y1="48828" x2="30652" y2="48828"/>
@@ -1743,11 +1649,11 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId21">
+                  <a14:imgLayer r:embed="rId19">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="6131" b="94503" l="10000" r="90000">
                         <a14:foregroundMark x1="51222" y1="6342" x2="51222" y2="6342"/>
@@ -2084,6 +1990,59 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>448235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1463488</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1362635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그래픽 2" descr="대상 단색으로 채워진">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBD94F2-C23D-B032-9C92-6BBD5D6D2937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11654117" y="4695264"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3216,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840A6E5F-3F9B-4A4A-B8E1-A32E93BD1DA9}">
   <dimension ref="B3:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3237,7 +3196,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -3246,16 +3205,16 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3272,13 +3231,13 @@
         <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I4" s="5"/>
     </row>
@@ -3293,13 +3252,13 @@
         <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="5"/>
@@ -3315,13 +3274,13 @@
         <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="5"/>
@@ -3340,14 +3299,12 @@
         <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3361,13 +3318,13 @@
         <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="5"/>
@@ -3386,13 +3343,13 @@
         <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -3407,13 +3364,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
@@ -3429,16 +3386,16 @@
         <v>24</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3446,22 +3403,22 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -3470,19 +3427,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="5"/>
@@ -3492,19 +3449,19 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="5"/>
@@ -3514,19 +3471,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="5"/>

--- a/_Prototype/Document/Character/캐릭터.xlsx
+++ b/_Prototype/Document/Character/캐릭터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\_Prototype\Document\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBAA9C8-A68F-4290-BC5B-E9E4F709D3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B3DD1B-83C6-4499-9314-B5C8B15AB3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30930" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터 설명 &amp; 스킬 설명" sheetId="1" r:id="rId1"/>
@@ -129,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지각 5초전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기타리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,12 +191,6 @@
   </si>
   <si>
     <t>기온</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지각 5초전의 속도 (이동속도 + 30%)로 이동합니다.
-5초간 빨라짐.
-쿨타임 20초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -309,6 +299,32 @@
 원숭이의 인벤토리도 사용할 수 있습니다.
 원숭이도 0.5인원수로 포함시킬 수 있습니다.
 쿨타임 : 5일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스랩을 하며
+적팀의 미션 수행을 한번 끊을 수 있습니다.
+쿨타임 : 60초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>욕심쟁이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(PASSIVE)
+이동속도 + 30%로 이동합니다.
+정제소와 재련소의 아이템을 상대팀에게 뺏기지 않습니다
+스킬 유지 시간 10초
+쿨타임 60초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타를 쳐서 범위 안에 들어와있던 캐릭터들에게 다음의 효과를 줍니다.
+같은 팀 점령 지점 : 미션 쿨 타임 30% 감소
+상대 팀 점령 지점 : 미션 쿨 타임 50% 증가
+효과 지속 시간 : 1일
+쿨타임 : (효과가 모두 발동된 후) 4일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -363,22 +379,13 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : 60초</t>
+      <t xml:space="preserve"> : 60초
+5명을 속박시키면 자기팀 로비에서 바리게이트로 스킬을 교체할 수 있습니다.
+적 팀은 바리게이트 사이를 이동할 수 없습니다.
+바리게이트 지속 시간 40초
+쿨타임 : (바리게이트가 사라진 후) 60초
+</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타를 쳐서 범위 안에 들어와있던 캐릭터들에게 다음의 효과를 줍니다.
-같은 팀 점령 지점 : 미션 쿨 타임 30% 감소
-상대 팀 점령 지점 : 미션 쿨 타임 50% 증가
-효과 지속 시간 : 1일
-쿨타임 : (효과가 모두 발동된 후) 4일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디스랩을 하며
-적팀의 미션 수행을 한번 끊을 수 있습니다.
-쿨타임 : 60초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1272,8 +1279,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11295528" y="14823700"/>
-          <a:ext cx="1619251" cy="1684805"/>
+          <a:off x="11295528" y="16302877"/>
+          <a:ext cx="1619251" cy="1684804"/>
           <a:chOff x="6658348" y="4490646"/>
           <a:chExt cx="1027954" cy="993295"/>
         </a:xfrm>
@@ -1569,7 +1576,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10957672" y="20648519"/>
+          <a:off x="10957672" y="22127696"/>
           <a:ext cx="2387000" cy="773629"/>
           <a:chOff x="8681085" y="4281596"/>
           <a:chExt cx="2396525" cy="773629"/>
@@ -2041,6 +2048,76 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>306808</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1683588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1583121</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2963269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="그림 31" descr="위험 실루엣, 무료 다운로드 이미지 - silhouetteAC">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{307B6C65-D119-CF88-D0BF-3614D6E18C2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId23">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11428067" y="13021622"/>
+          <a:ext cx="1276313" cy="1279681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3175,8 +3252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840A6E5F-3F9B-4A4A-B8E1-A32E93BD1DA9}">
   <dimension ref="B3:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3196,7 +3273,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -3205,16 +3282,16 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3228,16 +3305,16 @@
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I4" s="5"/>
     </row>
@@ -3249,13 +3326,13 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>63</v>
@@ -3274,13 +3351,13 @@
         <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="5"/>
@@ -3299,10 +3376,10 @@
         <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="5"/>
@@ -3318,13 +3395,13 @@
         <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="5"/>
@@ -3343,17 +3420,17 @@
         <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="255.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -3364,13 +3441,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
@@ -3383,42 +3460,43 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -3427,19 +3505,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="5"/>
@@ -3449,19 +3527,19 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="5"/>
@@ -3471,19 +3549,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="5"/>
@@ -3572,7 +3650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05607E0-108F-42B0-BFA5-F77F41A16EC7}">
   <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>

--- a/_Prototype/Document/Character/캐릭터.xlsx
+++ b/_Prototype/Document/Character/캐릭터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\_Prototype\Document\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B3DD1B-83C6-4499-9314-B5C8B15AB3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A1B98A-A9E8-46E4-9EC9-AD1814CA3F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
   </bookViews>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>머리 깨기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>역할 분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,11 +162,6 @@
   </si>
   <si>
     <t>마술사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연구소
-관리인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -215,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연구소 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>앤더</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,11 +232,6 @@
   <si>
     <t>O
 (테스트 X)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬을 당하면 5초간 머리가 아파 기절합니다.
-쿨타임 : 30초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -257,19 +239,6 @@
 한 종류의 아이템을 뺴온다.
 쿨타임 : (상대편의 배를 나왔을 때부터) 30초
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간이동
-원의 반지름 만큼 공간 이동이 가능합니다.
-이 스킬을 사용하면 벽도 넘을 수 있습니다.
-쿨타임 : 20초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연구소의 문을 닫을 수 있습니다.
-문은 5초 뒤 다시 열립니다.
-쿨타임 : (문이 열린 뒤) 20초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -388,12 +357,43 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>머리 깨기
+싸움 걸기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬을 당하면 5초간 머리가 아파 기절합니다.
+쿨타임 : 30초
+범위 내에 있는 적들을 도발하여 싸움을 겁니다.
+(도발 시 적들이 2초동안 레이에게 끌어당겨집니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순간이동
+원 안의 공간 어디든 순간이동 할 수 있습니다.
+쿨타임 : 40초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끈끈이 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밟으면 속도가 60% 감소하는 끈끈이를 설치합니다.
+쿨타임 :  40초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +413,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -469,7 +478,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -487,6 +496,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,7 +548,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11438404" y="1048871"/>
+          <a:off x="11438404" y="1990165"/>
           <a:ext cx="1314450" cy="1106905"/>
           <a:chOff x="905435" y="1438835"/>
           <a:chExt cx="2895600" cy="2438400"/>
@@ -1012,15 +1027,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>325531</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>442072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:colOff>1754281</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1590675</xdr:rowOff>
+      <xdr:rowOff>1870822</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1050,7 +1065,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11249025" y="7943850"/>
+          <a:off x="11430560" y="9171454"/>
           <a:ext cx="1428750" cy="1428750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1279,7 +1294,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11295528" y="16302877"/>
+          <a:off x="11295528" y="17860495"/>
           <a:ext cx="1619251" cy="1684804"/>
           <a:chOff x="6658348" y="4490646"/>
           <a:chExt cx="1027954" cy="993295"/>
@@ -1550,455 +1565,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>466725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>301025</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1240354</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="26" name="그룹 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9314A239-E36D-DA7E-A0D4-C3DF0B2BA847}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="10957672" y="22127696"/>
-          <a:ext cx="2387000" cy="773629"/>
-          <a:chOff x="8681085" y="4281596"/>
-          <a:chExt cx="2396525" cy="773629"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="27" name="Picture 18" descr="컴퓨터 아이콘 문, 실루엣 테두리, 각도, 가구, 건물 png | PNGWing">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0C6D7FE-7617-5823-481A-E57B04972BB2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId17">
-                    <a14:imgEffect>
-                      <a14:backgroundRemoval t="2344" b="98633" l="10000" r="90000">
-                        <a14:foregroundMark x1="30652" y1="48828" x2="30652" y2="48828"/>
-                        <a14:foregroundMark x1="37065" y1="2344" x2="37065" y2="2344"/>
-                        <a14:foregroundMark x1="69783" y1="91016" x2="69783" y2="91016"/>
-                        <a14:foregroundMark x1="30761" y1="98633" x2="30761" y2="98633"/>
-                      </a14:backgroundRemoval>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="8681085" y="4318436"/>
-            <a:ext cx="1287780" cy="716678"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="28" name="Picture 20" descr="컴퓨터 아이콘 문 창 건물, 문, 각도, 가구 png | PNGEgg">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D562C0FC-1585-6E08-8784-B021C26BEA6D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId19">
-                    <a14:imgEffect>
-                      <a14:backgroundRemoval t="6131" b="94503" l="10000" r="90000">
-                        <a14:foregroundMark x1="51222" y1="6342" x2="51222" y2="6342"/>
-                        <a14:foregroundMark x1="50111" y1="94503" x2="50111" y2="94503"/>
-                      </a14:backgroundRemoval>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="9605589" y="4281596"/>
-            <a:ext cx="1472021" cy="773629"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="TextBox 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63D5BB6-9FD5-A09E-E9FA-7B318B763E20}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9658826" y="4728421"/>
-            <a:ext cx="415498" cy="230832"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
-              <a:t>변경</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="30" name="직선 화살표 연결선 29">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AF00326-2DDF-8942-468C-427DBE0F45BA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:cxnSpLocks/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9753600" y="4668410"/>
-            <a:ext cx="259708" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="TextBox 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB15A952-1DAE-98AE-05BD-57471125FC52}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9601919" y="4415707"/>
-            <a:ext cx="529312" cy="215444"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-              <a:t>사용 시</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -2026,13 +1592,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2079,11 +1645,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId23">
+                <a14:imgLayer r:embed="rId19">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
                   </a14:imgEffect>
@@ -2118,6 +1684,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>302558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1526843</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1367117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9171ED-1032-D192-86F7-FF57F32E1D54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11519646" y="23521146"/>
+          <a:ext cx="1112226" cy="1064559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2431,7 +2041,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2375474" y="15285011"/>
+          <a:off x="2356424" y="15313586"/>
           <a:ext cx="1958400" cy="1098096"/>
           <a:chOff x="0" y="12644"/>
           <a:chExt cx="12192000" cy="6832712"/>
@@ -2942,6 +2552,50 @@
         <a:xfrm>
           <a:off x="2218765" y="20036118"/>
           <a:ext cx="4818529" cy="2697924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4705351</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2357407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC064A9-9381-983B-9251-E3EAE580A058}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2333626" y="28575000"/>
+          <a:ext cx="4591050" cy="2195482"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3250,14 +2904,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840A6E5F-3F9B-4A4A-B8E1-A32E93BD1DA9}">
-  <dimension ref="B3:I21"/>
+  <dimension ref="A3:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="54" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
@@ -3273,7 +2928,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -3282,16 +2937,16 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3305,16 +2960,16 @@
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I4" s="5"/>
     </row>
@@ -3329,13 +2984,13 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="5"/>
@@ -3351,13 +3006,13 @@
         <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="5"/>
@@ -3376,15 +3031,15 @@
         <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -3394,14 +3049,14 @@
       <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
+      <c r="E8" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="5"/>
@@ -3420,13 +3075,13 @@
         <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -3441,13 +3096,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
@@ -3463,16 +3118,16 @@
         <v>23</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -3481,22 +3136,22 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -3505,19 +3160,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="5"/>
@@ -3527,19 +3182,19 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="5"/>
@@ -3549,19 +3204,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="5"/>
@@ -3650,8 +3305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05607E0-108F-42B0-BFA5-F77F41A16EC7}">
   <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/_Prototype/Document/Character/캐릭터.xlsx
+++ b/_Prototype/Document/Character/캐릭터.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\_Prototype\Document\Character\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GGM졸\EscapeIsland\_Prototype\Document\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A1B98A-A9E8-46E4-9EC9-AD1814CA3F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터 설명 &amp; 스킬 설명" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'캐릭터 설명 &amp; 스킬 설명'!$F$3:$F$15</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <t>캐릭터 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,11 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>팀원들이 당한 모든 디버프를 해제합니다.
-쿨타임 15초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>디스랩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,10 +193,6 @@
   </si>
   <si>
     <t>도둑질</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -235,65 +225,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">상대편의 배에 들어가 상대가 모은 재료들중 
-한 종류의 아이템을 뺴온다.
-쿨타임 : (상대편의 배를 나왔을 때부터) 30초
+    <t>아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표 발견</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>욕심쟁이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끈끈이 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">정제소와 재련소의 아이템을 상대팀에게 뺏기지 않습니다.
+스킬 유지 시간 30초
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표 발견</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구역이 20초간 아무에게도 점령되지 않았다면 맵에 표시가 됩니다.
-본인팀 로비에서 맵을 확인하면 팀 로그에 점령되지 않은 곳을 알려줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덫을 사용하여 상대팀의 이동을 방해합니다.
-덫 사용 쿨타임 : 80초
-덫을 10회 사용하면 상대편 배에 불을 지를 수 있습니다. 
-(불을 지르면 배에 있는 재료들이 20초당 하나씩 사라집니다.)
-방화 쿨타임 : (불을 지른 순간부터) 100초</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(스킬 유지 시간이 지난 후) 쿨타임 2일</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">기타를 쳐서 범위 안에 들어와있던 팀원들에게 다음의 효과를 줍니다.
+같은 팀 점령 지점 : 미션 쿨 타임 30% 감소
+효과 지속 시간 : 1일
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쿨타임 : (효과가 모두 발동된 후) 4일</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">랜덤으로 결정된 목표로 설정된 아이템은
+미션을 하지 않고 한번 가져 올 수 있습니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>목표 설정 초기화 시간 : 5일</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(PASSIVE)
 사육하던 원숭이를 펫으로 데리고 다닙니다.
 원숭이의 인벤토리도 사용할 수 있습니다.
-원숭이도 0.5인원수로 포함시킬 수 있습니다.
-쿨타임 : 5일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디스랩을 하며
-적팀의 미션 수행을 한번 끊을 수 있습니다.
-쿨타임 : 60초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>욕심쟁이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(PASSIVE)
-이동속도 + 30%로 이동합니다.
-정제소와 재련소의 아이템을 상대팀에게 뺏기지 않습니다
-스킬 유지 시간 10초
-쿨타임 60초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타를 쳐서 범위 안에 들어와있던 캐릭터들에게 다음의 효과를 줍니다.
-같은 팀 점령 지점 : 미션 쿨 타임 30% 감소
-상대 팀 점령 지점 : 미션 쿨 타임 50% 증가
-효과 지속 시간 : 1일
-쿨타임 : (효과가 모두 발동된 후) 4일</t>
+원숭이도 0.5인원수로 포함시킬 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리 깨기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원들이 당한 모든 디버프를 해제합니다.
+디퍼프가 걸리지 않은 팀원에게는 이동속도 25% 버프를 줍니다.
+쿨타임 15초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -348,52 +378,152 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : 60초
-5명을 속박시키면 자기팀 로비에서 바리게이트로 스킬을 교체할 수 있습니다.
-적 팀은 바리게이트 사이를 이동할 수 없습니다.
-바리게이트 지속 시간 40초
-쿨타임 : (바리게이트가 사라진 후) 60초
+      <t xml:space="preserve"> : 60초</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬을 당하면 5초간 머리가 아파 기절합니다.
+쿨타임 : 30초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">디스랩을 하며
+적팀의 미션 수행을 한번 끊을 수 있습니다.
 </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>머리 깨기
-싸움 걸기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬을 당하면 5초간 머리가 아파 기절합니다.
-쿨타임 : 30초
-범위 내에 있는 적들을 도발하여 싸움을 겁니다.
-(도발 시 적들이 2초동안 레이에게 끌어당겨집니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순간이동
-원 안의 공간 어디든 순간이동 할 수 있습니다.
-쿨타임 : 40초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연구원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>끈끈이 설치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밟으면 속도가 60% 감소하는 끈끈이를 설치합니다.
-쿨타임 :  40초</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쿨타임 : 60초</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">덫을 사용하여 상대팀의 이동을 방해합니다.
+덫에 걸리면 10초간 움직일 수 없습니다.
+덫은 팀원들에게는 보이지만 상대팀에게는 보이지 않습니다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>덫 사용 쿨타임 : 80초</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">상대편의 배에 들어가 상대가 모은 재료들중 
+한 종류의 아이템을 뺴온다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쿨타임 : (상대편의 배를 나왔을 때부터) 30초</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">마술을 사용해 적의 물건중 하나를 훔쳐옵니다.
+(단, 마술사의 인벤토리가 모두 찬 경우 훔쳐온 아이템을 없애버립니다.)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쿨타임 : 40초</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">밟으면 속도가 60% 감소하는 끈끈이를 설치합니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쿨타임 :  40초</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다시생각</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +551,15 @@
     <font>
       <b/>
       <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -478,7 +617,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -501,6 +640,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -540,7 +682,7 @@
         <xdr:cNvPr id="2" name="그룹 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{330B0491-D117-0137-D5D0-08C6F6967F29}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{330B0491-D117-0137-D5D0-08C6F6967F29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -548,7 +690,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11438404" y="1990165"/>
+          <a:off x="11450411" y="1975757"/>
           <a:ext cx="1314450" cy="1106905"/>
           <a:chOff x="905435" y="1438835"/>
           <a:chExt cx="2895600" cy="2438400"/>
@@ -559,7 +701,7 @@
           <xdr:cNvPr id="3" name="Picture 2" descr="스포츠 달리는 사람 아이콘 - ico,png,icns,무료 아이콘 다운로드">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAAE82EC-C9E9-5A42-744C-73D21198BBEF}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAAE82EC-C9E9-5A42-744C-73D21198BBEF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -605,7 +747,7 @@
           <xdr:cNvPr id="4" name="순서도: 데이터 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31BEBAF1-56D2-479A-5282-AE8510F23881}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31BEBAF1-56D2-479A-5282-AE8510F23881}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -744,7 +886,7 @@
           <xdr:cNvPr id="5" name="순서도: 데이터 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88C6B5D-7E71-0FF6-8C8E-2D4BF920DF93}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88C6B5D-7E71-0FF6-8C8E-2D4BF920DF93}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -899,7 +1041,7 @@
         <xdr:cNvPr id="7" name="Picture 4" descr="160000+ 기타 아이콘 HD 사진 무료 다운로드 - Lovepik">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94636B19-35ED-E81E-36A2-355D485065A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94636B19-35ED-E81E-36A2-355D485065A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -972,7 +1114,7 @@
         <xdr:cNvPr id="9" name="Picture 8" descr="이모티콘 원숭이 이모티콘 컴퓨터 아이콘, 원숭이, 포유 동물, 얼굴, 동물 png | PNGWing">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9BDB6D-B57A-A14F-506B-0A1B2D1DAC60}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9BDB6D-B57A-A14F-506B-0A1B2D1DAC60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1027,22 +1169,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>325531</xdr:colOff>
+      <xdr:colOff>638496</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>442072</xdr:rowOff>
+      <xdr:rowOff>183536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1754281</xdr:colOff>
+      <xdr:colOff>1448282</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1870822</xdr:rowOff>
+      <xdr:rowOff>993322</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="그림 9" descr="G마켓 - 사무라이목검 발도제 대나무 합기도 무술 죽도 죽검">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1124D9F-156A-1849-EC01-65B0886D2E9F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1124D9F-156A-1849-EC01-65B0886D2E9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1065,8 +1207,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11430560" y="9171454"/>
-          <a:ext cx="1428750" cy="1428750"/>
+          <a:off x="11755532" y="8892107"/>
+          <a:ext cx="809786" cy="809786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1103,7 +1245,7 @@
         <xdr:cNvPr id="11" name="Picture 10" descr="치유 - 무료 발렌타인 데이개 아이콘">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60020D7D-A37E-6EFF-960C-0AEF5354042C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60020D7D-A37E-6EFF-960C-0AEF5354042C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1164,7 +1306,7 @@
         <xdr:cNvPr id="12" name="Picture 12" descr="체포, 아내가 아이콘 에 Unocha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F0B831-8616-1130-20EE-918810B4B8B8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F0B831-8616-1130-20EE-918810B4B8B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1225,7 +1367,7 @@
         <xdr:cNvPr id="13" name="그림 12" descr="Speaking, Talking PNG Transparent Background, Free Download #33631 -  FreeIconsPNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1BDCB3-3764-89B7-7E07-B9E6463A3BEE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1BDCB3-3764-89B7-7E07-B9E6463A3BEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1271,176 +1413,80 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1724024</xdr:rowOff>
+      <xdr:colOff>530674</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>336096</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:colOff>1362806</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1638299</xdr:rowOff>
+      <xdr:rowOff>1231276</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="그룹 13">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 16" descr="트래핑 그리스 트랩 컴퓨터 아이콘 쥐 덫 기호, 상징, 기타, 로고 png | PNGEgg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A91866B0-6339-FA2A-E5F5-6024AD3A58F4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937CD3EF-0A02-3E50-509F-2C87B0464EEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId11">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="9483" b="89943" l="5747" r="94540">
+                      <a14:foregroundMark x1="21839" y1="51437" x2="21839" y2="51437"/>
+                      <a14:foregroundMark x1="60057" y1="36494" x2="60057" y2="36494"/>
+                      <a14:foregroundMark x1="51149" y1="46264" x2="51149" y2="46264"/>
+                      <a14:foregroundMark x1="89943" y1="47126" x2="89943" y2="47126"/>
+                      <a14:foregroundMark x1="87931" y1="82759" x2="87931" y2="82759"/>
+                      <a14:foregroundMark x1="93678" y1="48276" x2="93678" y2="48276"/>
+                      <a14:foregroundMark x1="6034" y1="75575" x2="6034" y2="75575"/>
+                      <a14:foregroundMark x1="94540" y1="77874" x2="94540" y2="77874"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11295528" y="17860495"/>
-          <a:ext cx="1619251" cy="1684804"/>
-          <a:chOff x="6658348" y="4490646"/>
-          <a:chExt cx="1027954" cy="993295"/>
+          <a:off x="11647710" y="15752989"/>
+          <a:ext cx="832132" cy="895180"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="15" name="Picture 16" descr="트래핑 그리스 트랩 컴퓨터 아이콘 쥐 덫 기호, 상징, 기타, 로고 png | PNGEgg">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937CD3EF-0A02-3E50-509F-2C87B0464EEA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId11">
-                    <a14:imgEffect>
-                      <a14:backgroundRemoval t="9483" b="89943" l="5747" r="94540">
-                        <a14:foregroundMark x1="21839" y1="51437" x2="21839" y2="51437"/>
-                        <a14:foregroundMark x1="60057" y1="36494" x2="60057" y2="36494"/>
-                        <a14:foregroundMark x1="51149" y1="46264" x2="51149" y2="46264"/>
-                        <a14:foregroundMark x1="89943" y1="47126" x2="89943" y2="47126"/>
-                        <a14:foregroundMark x1="87931" y1="82759" x2="87931" y2="82759"/>
-                        <a14:foregroundMark x1="93678" y1="48276" x2="93678" y2="48276"/>
-                        <a14:foregroundMark x1="6034" y1="75575" x2="6034" y2="75575"/>
-                        <a14:foregroundMark x1="94540" y1="77874" x2="94540" y2="77874"/>
-                      </a14:backgroundRemoval>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="6658348" y="4490646"/>
-            <a:ext cx="528265" cy="528265"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="16" name="직선 연결선 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37DAFA3B-DA1B-142D-A086-532718393036}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:cxnSpLocks/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="6858000" y="4676775"/>
-            <a:ext cx="600075" cy="762000"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="17" name="그래픽 14" descr="불꽃 단색으로 채워진">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4790115A-11CC-6A49-0AAE-A956FB87CBB2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7186612" y="4984251"/>
-            <a:ext cx="499690" cy="499690"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1461,7 +1507,7 @@
         <xdr:cNvPr id="18" name="그림 17" descr="도척'의 도道 … '그네'의 도道 : 네이버 블로그">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03751642-5455-8159-D170-3714939B8ECE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03751642-5455-8159-D170-3714939B8ECE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1470,7 +1516,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1522,7 +1568,7 @@
         <xdr:cNvPr id="19" name="그림 18" descr="순간이동 아이콘 에 Game Icons">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5660D932-1B44-3E00-CAD6-A51628E13B6A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5660D932-1B44-3E00-CAD6-A51628E13B6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1531,7 +1577,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1583,7 +1629,7 @@
         <xdr:cNvPr id="25" name="그래픽 2" descr="대상 단색으로 채워진">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBD94F2-C23D-B032-9C92-6BBD5D6D2937}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBD94F2-C23D-B032-9C92-6BBD5D6D2937}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,13 +1638,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1621,76 +1667,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>306808</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1683588</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1583121</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>2963269</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="그림 31" descr="위험 실루엣, 무료 다운로드 이미지 - silhouetteAC">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{307B6C65-D119-CF88-D0BF-3614D6E18C2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId19">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11428067" y="13021622"/>
-          <a:ext cx="1276313" cy="1279681"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
       <xdr:colOff>414617</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>302558</xdr:rowOff>
@@ -1706,7 +1682,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9171ED-1032-D192-86F7-FF57F32E1D54}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9171ED-1032-D192-86F7-FF57F32E1D54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1715,7 +1691,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1755,7 +1731,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1799,7 +1775,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1843,7 +1819,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1887,7 +1863,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1907,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1970,7 +1946,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2033,7 +2009,7 @@
         <xdr:cNvPr id="10" name="그룹 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,7 +2028,7 @@
           <xdr:cNvPr id="11" name="그림 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2081,7 +2057,7 @@
           <xdr:cNvPr id="12" name="타원 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2230,7 +2206,7 @@
           <xdr:cNvPr id="13" name="그림 12" descr="텍스트, 우산, 액세서리, 벡터그래픽이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2265,7 +2241,7 @@
           <xdr:cNvPr id="14" name="Picture 2" descr="기절 이미지 - 게티이미지뱅크">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2336,7 +2312,7 @@
         <xdr:cNvPr id="21" name="그림 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2380,7 +2356,7 @@
         <xdr:cNvPr id="22" name="그림 21" descr="텍스트, 우산, 액세서리, 벡터그래픽이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2406,7 @@
         <xdr:cNvPr id="25" name="화살표: 오른쪽 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,7 +2466,7 @@
         <xdr:cNvPr id="32" name="그림 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2534,7 +2510,7 @@
         <xdr:cNvPr id="33" name="그림 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2554,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC064A9-9381-983B-9251-E3EAE580A058}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC064A9-9381-983B-9251-E3EAE580A058}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2903,11 +2879,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840A6E5F-3F9B-4A4A-B8E1-A32E93BD1DA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" x14ac:dyDescent="0.3"/>
@@ -2923,7 +2899,7 @@
     <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2943,13 +2919,13 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -2960,20 +2936,20 @@
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -2984,18 +2960,18 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -3006,18 +2982,18 @@
         <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -3034,12 +3010,15 @@
         <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="2:9" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -3050,18 +3029,18 @@
         <v>17</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -3078,14 +3057,14 @@
         <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="2:9" ht="255.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -3096,7 +3075,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>26</v>
@@ -3107,7 +3086,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -3118,66 +3097,66 @@
         <v>23</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -3188,18 +3167,18 @@
         <v>30</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -3207,10 +3186,10 @@
         <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>31</v>
@@ -3221,7 +3200,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -3294,15 +3273,16 @@
       <c r="I21" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="F3:F15" xr:uid="{840A6E5F-3F9B-4A4A-B8E1-A32E93BD1DA9}"/>
+  <autoFilter ref="F3:F15"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05607E0-108F-42B0-BFA5-F77F41A16EC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">

--- a/_Prototype/Document/Character/캐릭터.xlsx
+++ b/_Prototype/Document/Character/캐릭터.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GGM졸\EscapeIsland\_Prototype\Document\Character\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <t>캐릭터 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -682,7 +677,7 @@
         <xdr:cNvPr id="2" name="그룹 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{330B0491-D117-0137-D5D0-08C6F6967F29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{330B0491-D117-0137-D5D0-08C6F6967F29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -701,7 +696,7 @@
           <xdr:cNvPr id="3" name="Picture 2" descr="스포츠 달리는 사람 아이콘 - ico,png,icns,무료 아이콘 다운로드">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAAE82EC-C9E9-5A42-744C-73D21198BBEF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AAAE82EC-C9E9-5A42-744C-73D21198BBEF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -747,7 +742,7 @@
           <xdr:cNvPr id="4" name="순서도: 데이터 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31BEBAF1-56D2-479A-5282-AE8510F23881}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31BEBAF1-56D2-479A-5282-AE8510F23881}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -886,7 +881,7 @@
           <xdr:cNvPr id="5" name="순서도: 데이터 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88C6B5D-7E71-0FF6-8C8E-2D4BF920DF93}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C88C6B5D-7E71-0FF6-8C8E-2D4BF920DF93}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1041,7 +1036,7 @@
         <xdr:cNvPr id="7" name="Picture 4" descr="160000+ 기타 아이콘 HD 사진 무료 다운로드 - Lovepik">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94636B19-35ED-E81E-36A2-355D485065A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94636B19-35ED-E81E-36A2-355D485065A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1114,7 +1109,7 @@
         <xdr:cNvPr id="9" name="Picture 8" descr="이모티콘 원숭이 이모티콘 컴퓨터 아이콘, 원숭이, 포유 동물, 얼굴, 동물 png | PNGWing">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9BDB6D-B57A-A14F-506B-0A1B2D1DAC60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD9BDB6D-B57A-A14F-506B-0A1B2D1DAC60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1184,7 +1179,7 @@
         <xdr:cNvPr id="10" name="그림 9" descr="G마켓 - 사무라이목검 발도제 대나무 합기도 무술 죽도 죽검">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1124D9F-156A-1849-EC01-65B0886D2E9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1124D9F-156A-1849-EC01-65B0886D2E9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1245,7 +1240,7 @@
         <xdr:cNvPr id="11" name="Picture 10" descr="치유 - 무료 발렌타인 데이개 아이콘">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60020D7D-A37E-6EFF-960C-0AEF5354042C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60020D7D-A37E-6EFF-960C-0AEF5354042C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1301,7 @@
         <xdr:cNvPr id="12" name="Picture 12" descr="체포, 아내가 아이콘 에 Unocha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F0B831-8616-1130-20EE-918810B4B8B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19F0B831-8616-1130-20EE-918810B4B8B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1367,7 +1362,7 @@
         <xdr:cNvPr id="13" name="그림 12" descr="Speaking, Talking PNG Transparent Background, Free Download #33631 -  FreeIconsPNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1BDCB3-3764-89B7-7E07-B9E6463A3BEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB1BDCB3-3764-89B7-7E07-B9E6463A3BEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1428,7 +1423,7 @@
         <xdr:cNvPr id="15" name="Picture 16" descr="트래핑 그리스 트랩 컴퓨터 아이콘 쥐 덫 기호, 상징, 기타, 로고 png | PNGEgg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937CD3EF-0A02-3E50-509F-2C87B0464EEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{937CD3EF-0A02-3E50-509F-2C87B0464EEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1502,7 @@
         <xdr:cNvPr id="18" name="그림 17" descr="도척'의 도道 … '그네'의 도道 : 네이버 블로그">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03751642-5455-8159-D170-3714939B8ECE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03751642-5455-8159-D170-3714939B8ECE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1563,7 @@
         <xdr:cNvPr id="19" name="그림 18" descr="순간이동 아이콘 에 Game Icons">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5660D932-1B44-3E00-CAD6-A51628E13B6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5660D932-1B44-3E00-CAD6-A51628E13B6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1629,7 +1624,7 @@
         <xdr:cNvPr id="25" name="그래픽 2" descr="대상 단색으로 채워진">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBD94F2-C23D-B032-9C92-6BBD5D6D2937}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CBD94F2-C23D-B032-9C92-6BBD5D6D2937}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1644,7 +1639,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId17"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1682,7 +1677,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9171ED-1032-D192-86F7-FF57F32E1D54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C9171ED-1032-D192-86F7-FF57F32E1D54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1731,7 +1726,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,7 +1770,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1819,7 +1814,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1863,7 +1858,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1907,7 +1902,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,7 +1941,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2004,7 @@
         <xdr:cNvPr id="10" name="그룹 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,7 +2023,7 @@
           <xdr:cNvPr id="11" name="그림 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2057,7 +2052,7 @@
           <xdr:cNvPr id="12" name="타원 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2206,7 +2201,7 @@
           <xdr:cNvPr id="13" name="그림 12" descr="텍스트, 우산, 액세서리, 벡터그래픽이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2241,7 +2236,7 @@
           <xdr:cNvPr id="14" name="Picture 2" descr="기절 이미지 - 게티이미지뱅크">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2312,7 +2307,7 @@
         <xdr:cNvPr id="21" name="그림 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2356,7 +2351,7 @@
         <xdr:cNvPr id="22" name="그림 21" descr="텍스트, 우산, 액세서리, 벡터그래픽이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2401,7 @@
         <xdr:cNvPr id="25" name="화살표: 오른쪽 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,7 +2461,7 @@
         <xdr:cNvPr id="32" name="그림 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2510,7 +2505,7 @@
         <xdr:cNvPr id="33" name="그림 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2554,7 +2549,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC064A9-9381-983B-9251-E3EAE580A058}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4FC064A9-9381-983B-9251-E3EAE580A058}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,7 +2621,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2678,7 +2673,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2872,7 +2867,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2882,8 +2877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" x14ac:dyDescent="0.3"/>
@@ -2968,7 +2963,9 @@
       <c r="G5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2990,7 +2987,9 @@
       <c r="G6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/_Prototype/Document/Character/캐릭터.xlsx
+++ b/_Prototype/Document/Character/캐릭터.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\EscapeIsland\_Prototype\Document\Character\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
@@ -517,7 +522,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -659,365 +664,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1647825</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1449805</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="그룹 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{330B0491-D117-0137-D5D0-08C6F6967F29}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11450411" y="1975757"/>
-          <a:ext cx="1314450" cy="1106905"/>
-          <a:chOff x="905435" y="1438835"/>
-          <a:chExt cx="2895600" cy="2438400"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 2" descr="스포츠 달리는 사람 아이콘 - ico,png,icns,무료 아이콘 다운로드">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AAAE82EC-C9E9-5A42-744C-73D21198BBEF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1362635" y="1438835"/>
-            <a:ext cx="2438400" cy="2438400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="순서도: 데이터 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31BEBAF1-56D2-479A-5282-AE8510F23881}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1057835" y="2366682"/>
-            <a:ext cx="914400" cy="193690"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartInputOutput">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="순서도: 데이터 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C88C6B5D-7E71-0FF6-8C8E-2D4BF920DF93}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="905435" y="2627607"/>
-            <a:ext cx="914400" cy="193690"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartInputOutput">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -1036,7 +682,7 @@
         <xdr:cNvPr id="7" name="Picture 4" descr="160000+ 기타 아이콘 HD 사진 무료 다운로드 - Lovepik">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94636B19-35ED-E81E-36A2-355D485065A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94636B19-35ED-E81E-36A2-355D485065A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1045,11 +691,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId3">
+                <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                       <a14:foregroundMark x1="42667" y1="29333" x2="34222" y2="33333"/>
@@ -1109,7 +755,7 @@
         <xdr:cNvPr id="9" name="Picture 8" descr="이모티콘 원숭이 이모티콘 컴퓨터 아이콘, 원숭이, 포유 동물, 얼굴, 동물 png | PNGWing">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD9BDB6D-B57A-A14F-506B-0A1B2D1DAC60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9BDB6D-B57A-A14F-506B-0A1B2D1DAC60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1118,11 +764,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId5">
+                <a14:imgLayer r:embed="rId4">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
                   </a14:imgEffect>
@@ -1179,7 +825,7 @@
         <xdr:cNvPr id="10" name="그림 9" descr="G마켓 - 사무라이목검 발도제 대나무 합기도 무술 죽도 죽검">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1124D9F-156A-1849-EC01-65B0886D2E9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1124D9F-156A-1849-EC01-65B0886D2E9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1188,7 +834,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1240,7 +886,7 @@
         <xdr:cNvPr id="11" name="Picture 10" descr="치유 - 무료 발렌타인 데이개 아이콘">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60020D7D-A37E-6EFF-960C-0AEF5354042C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60020D7D-A37E-6EFF-960C-0AEF5354042C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1249,7 +895,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1301,7 +947,7 @@
         <xdr:cNvPr id="12" name="Picture 12" descr="체포, 아내가 아이콘 에 Unocha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19F0B831-8616-1130-20EE-918810B4B8B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F0B831-8616-1130-20EE-918810B4B8B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1310,7 +956,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1362,7 +1008,7 @@
         <xdr:cNvPr id="13" name="그림 12" descr="Speaking, Talking PNG Transparent Background, Free Download #33631 -  FreeIconsPNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB1BDCB3-3764-89B7-7E07-B9E6463A3BEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1BDCB3-3764-89B7-7E07-B9E6463A3BEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,7 +1017,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1423,7 +1069,7 @@
         <xdr:cNvPr id="15" name="Picture 16" descr="트래핑 그리스 트랩 컴퓨터 아이콘 쥐 덫 기호, 상징, 기타, 로고 png | PNGEgg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{937CD3EF-0A02-3E50-509F-2C87B0464EEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937CD3EF-0A02-3E50-509F-2C87B0464EEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1432,11 +1078,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId11">
+                <a14:imgLayer r:embed="rId10">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="9483" b="89943" l="5747" r="94540">
                       <a14:foregroundMark x1="21839" y1="51437" x2="21839" y2="51437"/>
@@ -1502,7 +1148,7 @@
         <xdr:cNvPr id="18" name="그림 17" descr="도척'의 도道 … '그네'의 도道 : 네이버 블로그">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03751642-5455-8159-D170-3714939B8ECE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03751642-5455-8159-D170-3714939B8ECE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,7 +1157,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1563,7 +1209,7 @@
         <xdr:cNvPr id="19" name="그림 18" descr="순간이동 아이콘 에 Game Icons">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5660D932-1B44-3E00-CAD6-A51628E13B6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5660D932-1B44-3E00-CAD6-A51628E13B6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1572,7 +1218,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1624,7 +1270,7 @@
         <xdr:cNvPr id="25" name="그래픽 2" descr="대상 단색으로 채워진">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CBD94F2-C23D-B032-9C92-6BBD5D6D2937}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBD94F2-C23D-B032-9C92-6BBD5D6D2937}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,13 +1279,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId17"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1677,7 +1323,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C9171ED-1032-D192-86F7-FF57F32E1D54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9171ED-1032-D192-86F7-FF57F32E1D54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1699,6 +1345,77 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>332509</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>249381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1634837</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1565307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19" descr="분노 컴퓨터 아이콘, 성 난 이모티콘, 기타, 텍스트, 손 png | PNGWing"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId20">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="652" b="99022" l="10000" r="90000">
+                      <a14:foregroundMark x1="32826" y1="15109" x2="32826" y2="15109"/>
+                      <a14:foregroundMark x1="26196" y1="23152" x2="26196" y2="23152"/>
+                      <a14:foregroundMark x1="21522" y1="21087" x2="21522" y2="21087"/>
+                      <a14:foregroundMark x1="57391" y1="10870" x2="57391" y2="10870"/>
+                      <a14:foregroundMark x1="70109" y1="11196" x2="70109" y2="11196"/>
+                      <a14:foregroundMark x1="78152" y1="9783" x2="78152" y2="9783"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11443854" y="1856508"/>
+          <a:ext cx="1302328" cy="1315926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1726,7 +1443,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1770,7 +1487,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1814,7 +1531,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1858,7 +1575,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1902,7 +1619,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1941,7 +1658,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +1721,7 @@
         <xdr:cNvPr id="10" name="그룹 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2023,7 +1740,7 @@
           <xdr:cNvPr id="11" name="그림 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2052,7 +1769,7 @@
           <xdr:cNvPr id="12" name="타원 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2201,7 +1918,7 @@
           <xdr:cNvPr id="13" name="그림 12" descr="텍스트, 우산, 액세서리, 벡터그래픽이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2236,7 +1953,7 @@
           <xdr:cNvPr id="14" name="Picture 2" descr="기절 이미지 - 게티이미지뱅크">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2307,7 +2024,7 @@
         <xdr:cNvPr id="21" name="그림 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2351,7 +2068,7 @@
         <xdr:cNvPr id="22" name="그림 21" descr="텍스트, 우산, 액세서리, 벡터그래픽이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2401,7 +2118,7 @@
         <xdr:cNvPr id="25" name="화살표: 오른쪽 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,7 +2178,7 @@
         <xdr:cNvPr id="32" name="그림 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2505,7 +2222,7 @@
         <xdr:cNvPr id="33" name="그림 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2549,7 +2266,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4FC064A9-9381-983B-9251-E3EAE580A058}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC064A9-9381-983B-9251-E3EAE580A058}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2867,7 +2584,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2877,24 +2594,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="54" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="52.8" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="6.25" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="6.19921875" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" customWidth="1"/>
     <col min="7" max="7" width="65.5" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="12.09765625" customWidth="1"/>
     <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2920,7 +2637,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -2944,7 +2661,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -2968,7 +2685,7 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -2992,7 +2709,7 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -3014,7 +2731,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>65</v>
       </c>
@@ -3039,7 +2756,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -3063,7 +2780,7 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -3085,7 +2802,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -3109,7 +2826,7 @@
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -3133,7 +2850,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -3155,7 +2872,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -3177,7 +2894,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -3199,7 +2916,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -3211,7 +2928,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -3223,7 +2940,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -3235,7 +2952,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -3247,7 +2964,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -3259,7 +2976,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <v>18</v>
       </c>
@@ -3288,14 +3005,14 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="7.75" customWidth="1"/>
-    <col min="4" max="4" width="64.75" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="7.69921875" customWidth="1"/>
+    <col min="4" max="4" width="64.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3306,7 +3023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -3315,7 +3032,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -3324,7 +3041,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -3333,7 +3050,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -3342,7 +3059,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -3351,7 +3068,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -3360,7 +3077,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -3369,7 +3086,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -3378,46 +3095,46 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <v>12</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="17" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="18" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="20" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="21" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="22" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="23" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="24" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="25" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="26" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Prototype/Document/Character/캐릭터.xlsx
+++ b/_Prototype/Document/Character/캐릭터.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24120" windowHeight="9705"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터 설명 &amp; 스킬 설명" sheetId="1" r:id="rId1"/>
@@ -121,10 +121,6 @@
   </si>
   <si>
     <t>원숭이 펫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디퍼프 해제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -516,6 +512,10 @@
       </rPr>
       <t>다시생각</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디퍼프 해제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,7 +1285,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId17"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2594,29 +2594,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="52.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="54" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="6.19921875" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" customWidth="1"/>
-    <col min="5" max="5" width="15.59765625" customWidth="1"/>
-    <col min="6" max="6" width="13.19921875" customWidth="1"/>
+    <col min="2" max="2" width="6.25" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="65.5" customWidth="1"/>
-    <col min="8" max="8" width="12.09765625" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
     <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -2625,19 +2625,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -2648,20 +2648,20 @@
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -2669,23 +2669,23 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -2696,20 +2696,20 @@
         <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -2723,17 +2723,17 @@
         <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
@@ -2745,18 +2745,18 @@
         <v>17</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -2767,20 +2767,20 @@
         <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -2791,18 +2791,18 @@
         <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -2810,113 +2810,113 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -2940,7 +2940,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -2952,7 +2952,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -2964,7 +2964,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -2976,7 +2976,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>18</v>
       </c>
@@ -3005,14 +3005,14 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.3984375" customWidth="1"/>
-    <col min="3" max="3" width="7.69921875" customWidth="1"/>
-    <col min="4" max="4" width="64.69921875" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="64.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -3095,46 +3095,46 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>12</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" ht="219.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Prototype/Document/Character/캐릭터.xlsx
+++ b/_Prototype/Document/Character/캐릭터.xlsx
@@ -405,27 +405,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">덫을 사용하여 상대팀의 이동을 방해합니다.
-덫에 걸리면 10초간 움직일 수 없습니다.
-덫은 팀원들에게는 보이지만 상대팀에게는 보이지 않습니다
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>덫 사용 쿨타임 : 80초</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">상대편의 배에 들어가 상대가 모은 재료들중 
 한 종류의 아이템을 뺴온다.
 </t>
@@ -478,25 +457,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">밟으면 속도가 60% 감소하는 끈끈이를 설치합니다.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>쿨타임 :  40초</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">!
 </t>
     </r>
@@ -516,6 +476,48 @@
   </si>
   <si>
     <t>디퍼프 해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">덫을 사용하여 상대팀의 이동을 방해하고 
+상대방이 모은 재료중 하나를 떨어트립니다.
+덫에 걸리면 10초간 움직일 수 없습니다.
+(덫은 팀원들에게는 보이지만 상대팀에게는 보이지 않습니다.)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>덫 사용 쿨타임 : 80초</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">밟으면 이동속도가 60% 감소하고 미션 쿨타임이 30% 
+증가하는 끈끈이를 설치합니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쿨타임 :  40초</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,7 +1287,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId17"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1402,6 +1404,61 @@
         <a:xfrm>
           <a:off x="11443854" y="1856508"/>
           <a:ext cx="1302328" cy="1315926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2005854</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1704784</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15" descr="15,338 끈적 끈적한 것일러스트, 벡터, 상업적 이미지사이트 - 123RF"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13424648" y="20820530"/>
+          <a:ext cx="1624853" cy="1626342"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2594,8 +2651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" x14ac:dyDescent="0.3"/>
@@ -2609,6 +2666,7 @@
     <col min="7" max="7" width="65.5" customWidth="1"/>
     <col min="8" max="8" width="12.125" customWidth="1"/>
     <col min="9" max="9" width="25.5" customWidth="1"/>
+    <col min="10" max="10" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2733,7 +2791,7 @@
     </row>
     <row r="8" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
@@ -2767,7 +2825,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>24</v>
@@ -2843,7 +2901,7 @@
         <v>31</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>44</v>
@@ -2867,7 +2925,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="5"/>
@@ -2889,7 +2947,7 @@
         <v>30</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="5"/>
@@ -2911,7 +2969,7 @@
         <v>30</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="5"/>
